--- a/fMRI experiment/psychopy code/fmri_inctruct5.xlsx
+++ b/fMRI experiment/psychopy code/fmri_inctruct5.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -12,15 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>instruct_text</t>
   </si>
   <si>
-    <t>Before listening to each story, you may be assigned one of the perspectives to take on while listening to it.</t>
-  </si>
-  <si>
-    <t>If a perspective is assigned, you’ll be quizzed on the 4 questions associated with it before listening.</t>
+    <t>If a perspective is assigned to a story, you’ll be quizzed on the 4 questions associated with it before listening.</t>
   </si>
   <si>
     <t>You must pass this quiz to move on to the story.</t>
@@ -81,7 +77,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -92,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -111,7 +107,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -124,6 +120,21 @@
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -132,28 +143,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -162,13 +173,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -180,55 +206,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -240,7 +221,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -255,7 +236,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -271,7 +252,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -285,7 +266,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -293,22 +274,19 @@
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -330,9 +308,9 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffcc0000"/>
-      <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
@@ -1427,7 +1405,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1435,13 +1413,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1456,7 +1428,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="165" customHeight="1">
+    <row r="2" ht="149" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
@@ -1467,195 +1439,184 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="149" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" ht="69" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="69" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="133" customHeight="1">
+      <c r="A4" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="133" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="85" customHeight="1">
+      <c r="A5" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="85" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="53" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="53" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.65" customHeight="1">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="20.65" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
